--- a/data/trans_dic/P73-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P73-Estudios-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,82; 74,43</t>
+          <t>69,19; 74,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,23; 74,27</t>
+          <t>68,33; 74,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,79; 70,51</t>
+          <t>63,45; 70,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,91; 65,17</t>
+          <t>59,52; 65,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,82; 67,11</t>
+          <t>61,9; 67,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,82</t>
+          <t>57,14; 63,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,44; 68,63</t>
+          <t>64,65; 68,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,38; 69,41</t>
+          <t>65,39; 69,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 65,69</t>
+          <t>60,95; 65,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,0; 63,91</t>
+          <t>59,28; 64,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 64,58</t>
+          <t>59,89; 64,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 64,55</t>
+          <t>60,26; 64,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,81; 65,55</t>
+          <t>60,88; 65,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,09; 67,63</t>
+          <t>62,96; 67,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,56; 62,89</t>
+          <t>58,43; 62,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 63,96</t>
+          <t>60,63; 64,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,31</t>
+          <t>61,99; 65,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59,98; 63,05</t>
+          <t>59,96; 63,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,9; 69,94</t>
+          <t>61,53; 70,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,8; 68,15</t>
+          <t>58,09; 67,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,55; 67,19</t>
+          <t>58,42; 67,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,81; 65,19</t>
+          <t>56,27; 64,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,21; 69,63</t>
+          <t>60,45; 69,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,66; 63,97</t>
+          <t>55,48; 64,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,96; 66,18</t>
+          <t>60,21; 66,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,94; 67,78</t>
+          <t>61,11; 67,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>58,66; 64,62</t>
+          <t>58,86; 64,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,83; 67,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,22; 66,67</t>
+          <t>63,39; 66,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 65,35</t>
+          <t>61,98; 65,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>61,02; 64,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,35; 66,52</t>
+          <t>63,32; 66,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,78; 62,14</t>
+          <t>58,69; 62,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,81; 65,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,8; 66,08</t>
+          <t>63,86; 66,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,92; 63,18</t>
+          <t>60,77; 63,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P73-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,19; 74,75</t>
+          <t>69,12; 74,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,33; 74,43</t>
+          <t>68,23; 74,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,45; 70,11</t>
+          <t>63,73; 70,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,52; 65,12</t>
+          <t>59,77; 65,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,9; 67,19</t>
+          <t>61,89; 67,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,14; 63,8</t>
+          <t>56,7; 63,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,65; 68,62</t>
+          <t>64,42; 68,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,39; 69,42</t>
+          <t>65,19; 69,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60,95; 65,71</t>
+          <t>61,15; 65,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,28; 64,12</t>
+          <t>59,19; 63,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,89; 64,42</t>
+          <t>59,95; 64,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,26; 64,67</t>
+          <t>60,25; 64,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,88; 65,5</t>
+          <t>60,75; 65,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,96; 67,49</t>
+          <t>62,95; 67,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,43; 62,93</t>
+          <t>58,39; 62,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,63; 64,01</t>
+          <t>60,57; 63,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,99; 65,26</t>
+          <t>62,15; 65,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59,96; 63,15</t>
+          <t>59,93; 63,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,53; 70,04</t>
+          <t>61,97; 70,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,09; 67,56</t>
+          <t>59,21; 67,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,42; 67,17</t>
+          <t>58,66; 67,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,27; 64,96</t>
+          <t>56,31; 64,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,45; 69,6</t>
+          <t>60,55; 69,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,48; 64,26</t>
+          <t>55,46; 63,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,21; 66,49</t>
+          <t>60,3; 66,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,11; 67,61</t>
+          <t>60,87; 67,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>58,86; 64,64</t>
+          <t>58,63; 64,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,83; 67,12</t>
+          <t>63,82; 67,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,39; 66,65</t>
+          <t>63,36; 66,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,98; 65,29</t>
+          <t>62,04; 65,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,02; 64,11</t>
+          <t>61,03; 64,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,32; 66,55</t>
+          <t>63,11; 66,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,69; 62,12</t>
+          <t>58,71; 62,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,81; 65,14</t>
+          <t>62,73; 65,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,86; 66,18</t>
+          <t>63,77; 66,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,77; 63,18</t>
+          <t>60,86; 63,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P73-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,49%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>67,38%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
           <t>63,31%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,12; 74,43</t>
+          <t>68,82; 74,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,23; 74,36</t>
+          <t>68,23; 74,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,73; 70,32</t>
+          <t>63,79; 70,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>59,91; 65,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,77; 65,04</t>
+          <t>61,82; 67,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,89; 67,5</t>
+          <t>57,22; 63,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,7; 63,61</t>
+          <t>64,44; 68,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>65,38; 69,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,42; 68,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>65,19; 69,23</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>61,15; 65,6</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
+          <t>61,04; 65,69</t>
         </is>
       </c>
     </row>
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>63,7%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
           <t>61,59%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,19; 63,84</t>
+          <t>59,0; 63,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 64,55</t>
+          <t>60,14; 64,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,25; 64,58</t>
+          <t>60,14; 64,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>60,81; 65,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,75; 65,63</t>
+          <t>63,09; 67,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,95; 67,81</t>
+          <t>58,56; 62,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,39; 62,86</t>
+          <t>60,51; 63,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>61,95; 65,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,57; 63,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>62,15; 65,22</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>59,93; 63,15</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
+          <t>59,98; 63,05</t>
         </is>
       </c>
     </row>
@@ -951,47 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>64,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>61,53%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,97; 70,21</t>
+          <t>61,9; 69,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,21; 67,99</t>
+          <t>58,8; 68,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,66; 67,12</t>
+          <t>58,55; 67,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>55,81; 65,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,31; 64,89</t>
+          <t>60,21; 69,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,55; 69,48</t>
+          <t>55,66; 63,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,46; 63,67</t>
+          <t>59,96; 66,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>60,94; 67,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,3; 66,38</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>60,87; 67,47</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>58,63; 64,47</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+          <t>58,66; 64,62</t>
         </is>
       </c>
     </row>
@@ -1091,47 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,49%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>65,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>62,02%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,82; 67,1</t>
+          <t>63,7; 67,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,36; 66,74</t>
+          <t>63,22; 66,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,04; 65,38</t>
+          <t>61,79; 65,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>61,01; 64,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,03; 64,22</t>
+          <t>63,35; 66,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,11; 66,42</t>
+          <t>58,78; 62,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,71; 62,03</t>
+          <t>62,75; 65,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,8; 66,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,73; 65,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>63,77; 66,14</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>60,86; 63,22</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+          <t>60,92; 63,18</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1068,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P73-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P73-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,82; 74,43</t>
+          <t>69,05; 74,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,23; 74,27</t>
+          <t>68,28; 73,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,79; 70,51</t>
+          <t>63,8; 70,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,91; 65,17</t>
+          <t>60,03; 65,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,82; 67,11</t>
+          <t>61,83; 66,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,82</t>
+          <t>56,94; 63,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,44; 68,63</t>
+          <t>64,43; 68,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,38; 69,41</t>
+          <t>65,42; 69,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 65,69</t>
+          <t>61,02; 65,77</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,0; 63,91</t>
+          <t>59,02; 63,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 64,58</t>
+          <t>59,99; 64,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 64,55</t>
+          <t>60,26; 64,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,81; 65,55</t>
+          <t>60,8; 65,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,09; 67,63</t>
+          <t>62,83; 67,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,56; 62,89</t>
+          <t>58,59; 63,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,51; 63,96</t>
+          <t>60,68; 63,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,31</t>
+          <t>62,11; 65,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,98; 63,05</t>
+          <t>60,12; 63,24</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,9; 69,94</t>
+          <t>61,61; 70,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,8; 68,15</t>
+          <t>58,67; 68,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,55; 67,19</t>
+          <t>59,27; 67,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,81; 65,19</t>
+          <t>55,9; 64,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,21; 69,63</t>
+          <t>60,23; 69,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,66; 63,97</t>
+          <t>54,96; 63,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,96; 66,18</t>
+          <t>60,41; 66,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,94; 67,78</t>
+          <t>61,22; 67,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,66; 64,62</t>
+          <t>58,16; 64,05</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,71; 67,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,22; 66,67</t>
+          <t>63,33; 66,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 65,35</t>
+          <t>61,91; 65,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>60,89; 64,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,35; 66,52</t>
+          <t>63,38; 66,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,78; 62,14</t>
+          <t>58,87; 62,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,79; 65,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,8; 66,08</t>
+          <t>63,83; 66,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,92; 63,18</t>
+          <t>60,89; 63,17</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que están casados o viven en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1447</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>740591</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>693397</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>506200</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>821797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>858093</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>601065</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1562387</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1551490</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1107265</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>712359; 767017</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>663427; 718669</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>481303; 531005</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>789432; 858790</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>822810; 889357</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>566380; 634307</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1512040; 1606692</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1506297; 1599761</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1067186; 1150311</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1038426</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1218073</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1294107</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1004128</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1142203</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1206995</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2042554</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2360276</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2501102</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>998967; 1075708</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1173363; 1257830</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1249414; 1336929</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>965263; 1042508</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1099064; 1180379</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1164384; 1253517</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1990371; 2098864</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2301169; 2421938</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2441242; 2568082</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>363441</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>304948</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>346386</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>288333</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>297314</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>327462</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>651774</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>602262</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>673849</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>339728; 388053</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>281824; 327737</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>324113; 369504</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>266321; 307870</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>275027; 318403</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>301329; 348619</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>620875; 683248</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>573595; 632920</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>636919; 701449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2142457</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2216417</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2146693</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2114257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2297610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2135523</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4256715</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4514027</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4282216</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2086954; 2196751</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2158267; 2273522</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2088994; 2204504</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2057600; 2170402</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2241532; 2355146</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2078106; 2197268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4178497; 4333967</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4433105; 4595151</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4204216; 4361838</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>